--- a/legislator/property/output/normal/許添財_2011-06-02_財產申報表_tmp15921.xlsx
+++ b/legislator/property/output/normal/許添財_2011-06-02_財產申報表_tmp15921.xlsx
@@ -15,9 +15,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>台南市安南區海東段00450069地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>許添財</t>
+  </si>
+  <si>
+    <t>87年07月03日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-06-02</t>
+  </si>
+  <si>
+    <t>tmp15921</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -38,28 +110,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>★台南市安南區海東段 0045-0069 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>許添財</t>
-  </si>
-  <si>
-    <t>87年07月 03日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>★台南市安南區海東段 01774-000 建號((信託)）</t>
+    <t>台南市安南區海東段01774000建號((信託)）</t>
   </si>
 </sst>
 </file>
@@ -418,13 +469,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,31 +497,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>85.59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>639</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -488,25 +581,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -514,25 +607,25 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>282.77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許添財_2011-06-02_財產申報表_tmp15921.xlsx
+++ b/legislator/property/output/normal/許添財_2011-06-02_財產申報表_tmp15921.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -59,7 +59,13 @@
     <t>index</t>
   </si>
   <si>
-    <t>台南市安南區海東段00450069地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>台南市安南區海東段01774000建號((信託)）</t>
   </si>
   <si>
     <t>全部</t>
@@ -75,42 +81,6 @@
   </si>
   <si>
     <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-06-02</t>
-  </si>
-  <si>
-    <t>tmp15921</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>台南市安南區海東段01774000建號((信託)）</t>
   </si>
 </sst>
 </file>
@@ -169,12 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,13 +438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,52 +487,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>85.59</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>639</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -573,59 +501,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>282.77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
-        <v>282.77</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許添財_2011-06-02_財產申報表_tmp15921.xlsx
+++ b/legislator/property/output/normal/許添財_2011-06-02_財產申報表_tmp15921.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -65,22 +65,37 @@
     <t>total</t>
   </si>
   <si>
+    <t>台南市安南區海東段00450069地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>許添財</t>
+  </si>
+  <si>
+    <t>87年07月03日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-06-02</t>
+  </si>
+  <si>
+    <t>tmp15921</t>
+  </si>
+  <si>
     <t>台南市安南區海東段01774000建號((信託)）</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>許添財</t>
-  </si>
-  <si>
-    <t>87年07月03日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
   </si>
 </sst>
 </file>
@@ -139,11 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,6 +508,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>85.59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>639</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>85.59</v>
       </c>
     </row>
   </sheetData>
@@ -501,33 +570,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
         <v>282.77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>639</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>282.77</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許添財_2011-06-02_財產申報表_tmp15921.xlsx
+++ b/legislator/property/output/normal/許添財_2011-06-02_財產申報表_tmp15921.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>台南市安南區海東段01774000建號((信託)）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
 </sst>
 </file>
@@ -652,7 +655,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
